--- a/data/trans_orig/P05B-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P05B-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>4404</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1660</v>
+        <v>1654</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9770</v>
+        <v>10189</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.007550589004541501</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002844982893684255</v>
+        <v>0.002835565822560663</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01674895080744601</v>
+        <v>0.01746732690337131</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -765,19 +765,19 @@
         <v>7123</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2806</v>
+        <v>3097</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14193</v>
+        <v>14558</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007722822245014341</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003042520356406789</v>
+        <v>0.003357509331210995</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01538779325656113</v>
+        <v>0.01578367827085777</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -786,19 +786,19 @@
         <v>11527</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5728</v>
+        <v>5581</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19505</v>
+        <v>19339</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007656095657721423</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003804029107661173</v>
+        <v>0.003706574122795287</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01295453840693478</v>
+        <v>0.01284415429527076</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>17249</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10252</v>
+        <v>10332</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26616</v>
+        <v>27219</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02957070858024893</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01757598988387152</v>
+        <v>0.01771262656321813</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04562831467426925</v>
+        <v>0.04666206600980357</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>67</v>
@@ -836,19 +836,19 @@
         <v>68462</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>54454</v>
+        <v>54253</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>85862</v>
+        <v>86532</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07422660495260119</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05903936002923747</v>
+        <v>0.05882193320227907</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09309213693078588</v>
+        <v>0.09381879315838079</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>84</v>
@@ -857,19 +857,19 @@
         <v>85711</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>67580</v>
+        <v>70510</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>105529</v>
+        <v>106929</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05692602139943311</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04488400854862394</v>
+        <v>0.04683021095916492</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07008850899990712</v>
+        <v>0.07101834068485952</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>171202</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>150316</v>
+        <v>150269</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>195103</v>
+        <v>192811</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2934962792240696</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2576896309255909</v>
+        <v>0.2576105993807431</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.334469701163535</v>
+        <v>0.3305411099154058</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>240</v>
@@ -907,19 +907,19 @@
         <v>251476</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>225532</v>
+        <v>225859</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>280006</v>
+        <v>278517</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2726515307644025</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2445234472692761</v>
+        <v>0.244877877648183</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3035847296735066</v>
+        <v>0.3019704247717344</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>409</v>
@@ -928,19 +928,19 @@
         <v>422678</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>388799</v>
+        <v>386755</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>460803</v>
+        <v>456901</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2807272014298001</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2582262400218399</v>
+        <v>0.2568685851699293</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3060489294153386</v>
+        <v>0.3034571732724977</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>342118</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>319074</v>
+        <v>318613</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>367086</v>
+        <v>365852</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5865021712174644</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5469965657002126</v>
+        <v>0.5462056442435789</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.629304623926021</v>
+        <v>0.6271896960594378</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>498</v>
@@ -978,19 +978,19 @@
         <v>517306</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>485511</v>
+        <v>486480</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>545583</v>
+        <v>546055</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5608667037414062</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5263944922227706</v>
+        <v>0.5274447592162612</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5915251330025557</v>
+        <v>0.5920363835476535</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>832</v>
@@ -999,19 +999,19 @@
         <v>859424</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>822206</v>
+        <v>819029</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>897877</v>
+        <v>898282</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5707983943583851</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5460795417645966</v>
+        <v>0.5439692394050102</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5963374176920045</v>
+        <v>0.5966060814002693</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>48346</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>36457</v>
+        <v>36401</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>64189</v>
+        <v>62912</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08288025197367554</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06249838478241182</v>
+        <v>0.06240265488859639</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1100413050687807</v>
+        <v>0.1078518376247553</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>73</v>
@@ -1049,19 +1049,19 @@
         <v>77967</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>62723</v>
+        <v>60922</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>97679</v>
+        <v>95123</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08453233829657575</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06800486050124291</v>
+        <v>0.06605169194866573</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1059039638159893</v>
+        <v>0.1031330120444884</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>121</v>
@@ -1070,19 +1070,19 @@
         <v>126313</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>104244</v>
+        <v>105205</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>150196</v>
+        <v>148778</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.08389228715466031</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06923475023713355</v>
+        <v>0.06987352138200542</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09975461777158842</v>
+        <v>0.09881325690859256</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>3990</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>938</v>
+        <v>1079</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9310</v>
+        <v>9968</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003705361108967241</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0008707723088198293</v>
+        <v>0.001002137603112629</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.008644616083785061</v>
+        <v>0.009255579296770039</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1195,19 +1195,19 @@
         <v>6750</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2853</v>
+        <v>2843</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13469</v>
+        <v>13492</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006383033337432487</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002697739578841475</v>
+        <v>0.002688343643688476</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0127360953649216</v>
+        <v>0.01275751925878933</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -1216,19 +1216,19 @@
         <v>10741</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5847</v>
+        <v>5754</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18599</v>
+        <v>18455</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005032021958211046</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002739070150094052</v>
+        <v>0.002695822371509274</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.008713546107086989</v>
+        <v>0.008646012977248955</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>36252</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>25678</v>
+        <v>24601</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>50232</v>
+        <v>48994</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0336614806757333</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0238432972535985</v>
+        <v>0.02284339792963788</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04664318201215712</v>
+        <v>0.04549319510567161</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>30</v>
@@ -1266,19 +1266,19 @@
         <v>30939</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>21479</v>
+        <v>20777</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>42823</v>
+        <v>43104</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02925571280655499</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02031041951087267</v>
+        <v>0.01964682651081812</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0404928246671095</v>
+        <v>0.04075902397577772</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>66</v>
@@ -1287,19 +1287,19 @@
         <v>67191</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>53049</v>
+        <v>52604</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>86125</v>
+        <v>84895</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03147862958561114</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02485331520044441</v>
+        <v>0.02464496036407664</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04034932098766595</v>
+        <v>0.03977298395444571</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>227374</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>202377</v>
+        <v>201018</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>255628</v>
+        <v>253870</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2111277854630983</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1879165349734045</v>
+        <v>0.1866546514664962</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2373628561648938</v>
+        <v>0.2357311102935343</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>212</v>
@@ -1337,19 +1337,19 @@
         <v>220137</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>195971</v>
+        <v>191937</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>248808</v>
+        <v>245669</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2081602334296535</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1853086470283088</v>
+        <v>0.181494447660787</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2352706690928988</v>
+        <v>0.2323030070550547</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>434</v>
@@ -1358,19 +1358,19 @@
         <v>447511</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>411816</v>
+        <v>412532</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>485930</v>
+        <v>485051</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2096575027828609</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1929343130990429</v>
+        <v>0.1932697440704313</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2276566487082818</v>
+        <v>0.2272448436726804</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>702241</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>669502</v>
+        <v>674009</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>729812</v>
+        <v>734459</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6520647890915192</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6216654651816544</v>
+        <v>0.6258508402111638</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6776665350713664</v>
+        <v>0.6819814720364797</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>678</v>
@@ -1408,19 +1408,19 @@
         <v>693249</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>659919</v>
+        <v>662806</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>721347</v>
+        <v>725518</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6555313340007214</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.624014914021037</v>
+        <v>0.6267445167173172</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6820999688927685</v>
+        <v>0.6860447165652406</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1368</v>
@@ -1429,19 +1429,19 @@
         <v>1395489</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1348755</v>
+        <v>1350946</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1436288</v>
+        <v>1436659</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6537822993096462</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6318874156006454</v>
+        <v>0.6329138097900452</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6728965729670839</v>
+        <v>0.6730700557658804</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>107092</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>89125</v>
+        <v>89436</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>127938</v>
+        <v>131003</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.09944058366068202</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08275651457504245</v>
+        <v>0.08304612652928403</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1187965272348134</v>
+        <v>0.1216422566407634</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>101</v>
@@ -1479,19 +1479,19 @@
         <v>106462</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>89465</v>
+        <v>87953</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>127672</v>
+        <v>128760</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1006696864256377</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08459719136036797</v>
+        <v>0.08316737512520446</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1207257464408504</v>
+        <v>0.1217549395191874</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>203</v>
@@ -1500,19 +1500,19 @@
         <v>213554</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>187934</v>
+        <v>186019</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>243085</v>
+        <v>243072</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1000495463636707</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08804634346454006</v>
+        <v>0.0871491922544623</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1138845108145276</v>
+        <v>0.1138786023676337</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>6936</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2619</v>
+        <v>2788</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15550</v>
+        <v>15615</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006183816362858272</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002335426462664703</v>
+        <v>0.002485404375257028</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01386405592516782</v>
+        <v>0.01392223131158709</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -1625,19 +1625,19 @@
         <v>5116</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1897</v>
+        <v>1963</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10863</v>
+        <v>11270</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.005155559682746304</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00191125354427237</v>
+        <v>0.001978619440295674</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01094690960168439</v>
+        <v>0.01135746148673239</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -1646,19 +1646,19 @@
         <v>12052</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6387</v>
+        <v>5976</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>22985</v>
+        <v>21763</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005701130181132024</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003021310760952698</v>
+        <v>0.002827112644555562</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01087317037138684</v>
+        <v>0.01029535586206</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>14990</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8614</v>
+        <v>8734</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24538</v>
+        <v>24328</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0133650767447019</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.007680564495186417</v>
+        <v>0.007786916246362407</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02187747964480235</v>
+        <v>0.02169032597756662</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>25</v>
@@ -1696,19 +1696,19 @@
         <v>25568</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>16507</v>
+        <v>16835</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>37070</v>
+        <v>36821</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02576642272915689</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0166347681411765</v>
+        <v>0.01696544574828624</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03735672720299528</v>
+        <v>0.03710612448788368</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>40</v>
@@ -1717,19 +1717,19 @@
         <v>40559</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>29463</v>
+        <v>29214</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>54975</v>
+        <v>54188</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01918653986502989</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01393758988485899</v>
+        <v>0.01381966689180224</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02600639049010263</v>
+        <v>0.02563383331637753</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>164980</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>142980</v>
+        <v>142243</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>190081</v>
+        <v>190408</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1470944366550816</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1274797279934463</v>
+        <v>0.1268217724458429</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1694740123951647</v>
+        <v>0.1697651308853156</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>152</v>
@@ -1767,19 +1767,19 @@
         <v>155445</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>131057</v>
+        <v>133438</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>177167</v>
+        <v>179266</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1566483649507755</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1320721689897651</v>
+        <v>0.1344715049586379</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1785391830899205</v>
+        <v>0.1806542582072717</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>312</v>
@@ -1788,19 +1788,19 @@
         <v>320425</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>288988</v>
+        <v>285883</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>354617</v>
+        <v>356572</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1515792596168276</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.136708000980848</v>
+        <v>0.1352388333385784</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1677540967567609</v>
+        <v>0.1686790720018335</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>816740</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>786108</v>
+        <v>786122</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>847782</v>
+        <v>846337</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7281958595686314</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7008845561122414</v>
+        <v>0.7008968364381367</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7558723777534837</v>
+        <v>0.7545837289084041</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>712</v>
@@ -1838,19 +1838,19 @@
         <v>717250</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>689975</v>
+        <v>687678</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>745300</v>
+        <v>743618</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7228036710678389</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6953173957706278</v>
+        <v>0.6930026538759432</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7510708934304773</v>
+        <v>0.7493757678780916</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1516</v>
@@ -1859,19 +1859,19 @@
         <v>1533990</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1490807</v>
+        <v>1494252</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1575598</v>
+        <v>1574789</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.725664648316678</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7052367195119895</v>
+        <v>0.7068662011387981</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7453477360119632</v>
+        <v>0.7449650014335049</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>117948</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>99267</v>
+        <v>98374</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>138338</v>
+        <v>137961</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1051608106687268</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08850534953080377</v>
+        <v>0.08770916498197555</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1233402020244399</v>
+        <v>0.1230041960866542</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>87</v>
@@ -1909,19 +1909,19 @@
         <v>88937</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>72972</v>
+        <v>71133</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>108444</v>
+        <v>106297</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08962598156948239</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07353701223703336</v>
+        <v>0.07168354780961493</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1092840635427195</v>
+        <v>0.1071196682731307</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>205</v>
@@ -1930,19 +1930,19 @@
         <v>206885</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>180219</v>
+        <v>179232</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>234767</v>
+        <v>235407</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09786842202033251</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08525381147171095</v>
+        <v>0.08478712328314868</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1110583274116032</v>
+        <v>0.1113611666223642</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>6337</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2402</v>
+        <v>2219</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15004</v>
+        <v>15631</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01424580031450067</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005399028250903205</v>
+        <v>0.004988409908292168</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03372963914692861</v>
+        <v>0.03513796452520614</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6188</v>
+        <v>6214</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.003373499768053924</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01813696579546032</v>
+        <v>0.01821460883589027</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6</v>
@@ -2076,19 +2076,19 @@
         <v>7488</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2919</v>
+        <v>2797</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>16292</v>
+        <v>15637</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.009526777053629615</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003714200634900073</v>
+        <v>0.003558362900890905</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02072721258536335</v>
+        <v>0.01989484945103163</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>6198</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2494</v>
+        <v>2623</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>13443</v>
+        <v>12870</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01393370539197471</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.005607185441595375</v>
+        <v>0.005896639232160963</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03021911373533927</v>
+        <v>0.02893227477867849</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>12</v>
@@ -2126,19 +2126,19 @@
         <v>12113</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>6470</v>
+        <v>6015</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>20405</v>
+        <v>20284</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03550433942132798</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01896419570799184</v>
+        <v>0.01763100958994115</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05981067230853621</v>
+        <v>0.05945664129423013</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>18</v>
@@ -2147,19 +2147,19 @@
         <v>18311</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>11341</v>
+        <v>11349</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>28152</v>
+        <v>28340</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0232962430905414</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01442921857531806</v>
+        <v>0.01443898726583025</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03581720053522693</v>
+        <v>0.03605607612571445</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>84604</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>69356</v>
+        <v>68096</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>101542</v>
+        <v>102483</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1901867094574385</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1559104739291001</v>
+        <v>0.1530784920109176</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2282637548673692</v>
+        <v>0.2303777056918722</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>61</v>
@@ -2197,19 +2197,19 @@
         <v>62927</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>50325</v>
+        <v>50720</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>77620</v>
+        <v>78937</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1844522631048343</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.147511526039569</v>
+        <v>0.1486715804881703</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2275181166213169</v>
+        <v>0.231378912032255</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>145</v>
@@ -2218,19 +2218,19 @@
         <v>147531</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>126282</v>
+        <v>125789</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>170969</v>
+        <v>171545</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1876977251242193</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1606627129539728</v>
+        <v>0.1600365181797083</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2175163430705375</v>
+        <v>0.2182489914305175</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>270845</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>249612</v>
+        <v>250186</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>289627</v>
+        <v>290602</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6088520108609167</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5611197279645654</v>
+        <v>0.5624101357763235</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6510717119675082</v>
+        <v>0.6532634533521777</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>220</v>
@@ -2268,19 +2268,19 @@
         <v>219749</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>200785</v>
+        <v>202192</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>237857</v>
+        <v>236346</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6441276753401713</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5885387945281624</v>
+        <v>0.5926632161135088</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6972046367608388</v>
+        <v>0.6927768607755312</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>485</v>
@@ -2289,19 +2289,19 @@
         <v>490595</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>465209</v>
+        <v>464235</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>521039</v>
+        <v>518095</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6241630924953082</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5918657105287242</v>
+        <v>0.5906267923024811</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6628964334305496</v>
+        <v>0.6591512234518269</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>76861</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>61809</v>
+        <v>62211</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>93616</v>
+        <v>96351</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1727817739751694</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1389443837167106</v>
+        <v>0.1398491548483945</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2104458072835811</v>
+        <v>0.2165938356587977</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>45</v>
@@ -2339,19 +2339,19 @@
         <v>45218</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>33279</v>
+        <v>34153</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>61253</v>
+        <v>58760</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1325422223656124</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09754732691769423</v>
+        <v>0.1001090426730689</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1795455227132518</v>
+        <v>0.1722362732159703</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>119</v>
@@ -2360,19 +2360,19 @@
         <v>122079</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>100811</v>
+        <v>103397</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>142033</v>
+        <v>145520</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1553161622363015</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1282573972186941</v>
+        <v>0.1315481950643877</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1807032654630303</v>
+        <v>0.1851384570077625</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>21668</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>13596</v>
+        <v>13417</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>34660</v>
+        <v>33693</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.006715144339003164</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.004213436338260142</v>
+        <v>0.004158037888367922</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01074173991153638</v>
+        <v>0.01044182470044518</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>20</v>
@@ -2485,19 +2485,19 @@
         <v>20140</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>12864</v>
+        <v>11725</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>30530</v>
+        <v>30357</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.006078496250688657</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.003882570598461166</v>
+        <v>0.003538658631960744</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.009214186792190656</v>
+        <v>0.009161964911161105</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>40</v>
@@ -2506,19 +2506,19 @@
         <v>41808</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>30727</v>
+        <v>30408</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>57190</v>
+        <v>56478</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.006392603499874765</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.004698346068330857</v>
+        <v>0.004649501057940134</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.008744568009065961</v>
+        <v>0.008635712902404223</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>74689</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>58971</v>
+        <v>56997</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>92707</v>
+        <v>94963</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02314724258005203</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01827592047337216</v>
+        <v>0.01766409875812546</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02873121951503369</v>
+        <v>0.02943023873885834</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>134</v>
@@ -2556,19 +2556,19 @@
         <v>137082</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>113745</v>
+        <v>115465</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>161698</v>
+        <v>161532</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04137260370768689</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03432933145939841</v>
+        <v>0.03484856440525306</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04880197862525845</v>
+        <v>0.0487519576685142</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>208</v>
@@ -2577,19 +2577,19 @@
         <v>211771</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>184208</v>
+        <v>183564</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>243893</v>
+        <v>241165</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03238063757396191</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02816620269581434</v>
+        <v>0.02806771604703472</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03729222341974364</v>
+        <v>0.03687503441825608</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>648160</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>601956</v>
+        <v>604858</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>695426</v>
+        <v>696544</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2008734326181643</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1865542677142431</v>
+        <v>0.1874534216431662</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2155217048448871</v>
+        <v>0.2158680887680278</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>665</v>
@@ -2627,19 +2627,19 @@
         <v>689985</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>644275</v>
+        <v>643632</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>734944</v>
+        <v>738410</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.208244215713244</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1944485479198153</v>
+        <v>0.194254338675764</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2218132571137055</v>
+        <v>0.2228592773767609</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1300</v>
@@ -2648,19 +2648,19 @@
         <v>1338145</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1272672</v>
+        <v>1270039</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1410016</v>
+        <v>1406353</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2046076440422721</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1945965825191315</v>
+        <v>0.1941939350411042</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2155969275740456</v>
+        <v>0.215036863769997</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>2131944</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2081728</v>
+        <v>2075892</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>2188336</v>
+        <v>2187091</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.6607179228854088</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.645155185131646</v>
+        <v>0.6433466321677933</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.6781943967069908</v>
+        <v>0.6778084477550176</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2108</v>
@@ -2698,19 +2698,19 @@
         <v>2147554</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2091449</v>
+        <v>2089703</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>2203694</v>
+        <v>2198386</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.6481528730899692</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.6312198046176515</v>
+        <v>0.630692823370027</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.665096460088618</v>
+        <v>0.6634945129564349</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>4201</v>
@@ -2719,19 +2719,19 @@
         <v>4279499</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>4191594</v>
+        <v>4195254</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>4360076</v>
+        <v>4354559</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.6543521742416947</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.6409111767409775</v>
+        <v>0.6414708918311313</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.6666728210995674</v>
+        <v>0.6658291599710832</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>350247</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>315503</v>
+        <v>315937</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>388259</v>
+        <v>390707</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1085462575773718</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09777859496765931</v>
+        <v>0.09791311995463156</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1203267427194829</v>
+        <v>0.1210852276420806</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>306</v>
@@ -2769,19 +2769,19 @@
         <v>318584</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>281533</v>
+        <v>285647</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>354298</v>
+        <v>355105</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.09615181123841129</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.08496952241611852</v>
+        <v>0.0862111097809235</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1069306407566636</v>
+        <v>0.1071741580684225</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>648</v>
@@ -2790,19 +2790,19 @@
         <v>668831</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>621634</v>
+        <v>622468</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>719103</v>
+        <v>722851</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1022669406421965</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.09505024429813147</v>
+        <v>0.09517777310264618</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1099537369010856</v>
+        <v>0.1105267115327455</v>
       </c>
     </row>
     <row r="33">
@@ -3134,19 +3134,19 @@
         <v>6750</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2471</v>
+        <v>2749</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16241</v>
+        <v>14955</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006466182044601116</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002367289291605825</v>
+        <v>0.002633618987225206</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01555708950119076</v>
+        <v>0.01432586386504438</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -3155,19 +3155,19 @@
         <v>4026</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9357</v>
+        <v>9361</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003608752589406676</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.000976325655321943</v>
+        <v>0.0009740904942808617</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.008387348278784661</v>
+        <v>0.008390982322134848</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -3176,19 +3176,19 @@
         <v>10776</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5651</v>
+        <v>4937</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19462</v>
+        <v>18924</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004990034684775175</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002616903657610757</v>
+        <v>0.002286281620204643</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.00901213669552842</v>
+        <v>0.008762729992910881</v>
       </c>
     </row>
     <row r="5">
@@ -3205,19 +3205,19 @@
         <v>22233</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14573</v>
+        <v>13814</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>33040</v>
+        <v>34180</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02129750875701344</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01395977090392015</v>
+        <v>0.01323282807202883</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03164972511589158</v>
+        <v>0.03274184639350809</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>20</v>
@@ -3226,19 +3226,19 @@
         <v>22431</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13742</v>
+        <v>14226</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>34326</v>
+        <v>34080</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02010603266141086</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01231783593953231</v>
+        <v>0.01275161126056451</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03076820651735105</v>
+        <v>0.03054771198088433</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>40</v>
@@ -3247,19 +3247,19 @@
         <v>44664</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>32700</v>
+        <v>32098</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>62831</v>
+        <v>60293</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02068199249654297</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01514207993216001</v>
+        <v>0.01486323613508399</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02909416826851726</v>
+        <v>0.0279191349819214</v>
       </c>
     </row>
     <row r="6">
@@ -3276,19 +3276,19 @@
         <v>187536</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>162180</v>
+        <v>160769</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>215006</v>
+        <v>214240</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1796431457870198</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.155354778427222</v>
+        <v>0.1540025861082872</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2059567990772264</v>
+        <v>0.2052239647068278</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>182</v>
@@ -3297,19 +3297,19 @@
         <v>200369</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>176026</v>
+        <v>176315</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>226491</v>
+        <v>227502</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1796019407123161</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1577813804592711</v>
+        <v>0.1580409808719825</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2030156725958616</v>
+        <v>0.2039221405070062</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>352</v>
@@ -3318,19 +3318,19 @@
         <v>387905</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>351152</v>
+        <v>352610</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>426536</v>
+        <v>423577</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1796218592554749</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.16260313220176</v>
+        <v>0.1632782851293266</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1975100556004071</v>
+        <v>0.196139879585241</v>
       </c>
     </row>
     <row r="7">
@@ -3347,19 +3347,19 @@
         <v>722488</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>691429</v>
+        <v>693182</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>750983</v>
+        <v>754128</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6920817393996728</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6623298362436798</v>
+        <v>0.6640088611314934</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7193774492931184</v>
+        <v>0.7223902703641358</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>720</v>
@@ -3368,19 +3368,19 @@
         <v>780227</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>747193</v>
+        <v>749314</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>811059</v>
+        <v>808376</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6993592550078779</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6697491863808875</v>
+        <v>0.6716506448354904</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7269961085028233</v>
+        <v>0.7245909708347906</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1401</v>
@@ -3389,19 +3389,19 @@
         <v>1502715</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1457499</v>
+        <v>1459651</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1547365</v>
+        <v>1548160</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6958413021883937</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6749037379596932</v>
+        <v>0.6759001681299633</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7165168385940892</v>
+        <v>0.7168849396607625</v>
       </c>
     </row>
     <row r="8">
@@ -3418,19 +3418,19 @@
         <v>104927</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>86830</v>
+        <v>85279</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>126344</v>
+        <v>122841</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1005114240116928</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08317567783290987</v>
+        <v>0.08169012152039758</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.121026475549814</v>
+        <v>0.1176711040040363</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>101</v>
@@ -3439,19 +3439,19 @@
         <v>108578</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>88987</v>
+        <v>91419</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>127884</v>
+        <v>128204</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.09732401902898846</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07976362633960153</v>
+        <v>0.08194368445863914</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1146290156351389</v>
+        <v>0.1149161337541523</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>202</v>
@@ -3460,19 +3460,19 @@
         <v>213505</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>183360</v>
+        <v>187553</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>239636</v>
+        <v>245218</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.09886481137481325</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08490573964080135</v>
+        <v>0.08684774529013997</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1109648087331752</v>
+        <v>0.113549611183357</v>
       </c>
     </row>
     <row r="9">
@@ -3567,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4849</v>
+        <v>5254</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0009511650563413727</v>
@@ -3576,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.004993099431357058</v>
+        <v>0.005409607357603968</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -3585,19 +3585,19 @@
         <v>4374</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1104</v>
+        <v>1113</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9961</v>
+        <v>10879</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0040282101126363</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001017026306767104</v>
+        <v>0.0010246082498721</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.009172318137676971</v>
+        <v>0.01001775425103824</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -3606,19 +3606,19 @@
         <v>5298</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2053</v>
+        <v>2042</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11785</v>
+        <v>10932</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002575486862613106</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0009981146527143134</v>
+        <v>0.0009924749564450708</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.005728512952070114</v>
+        <v>0.005314022923134755</v>
       </c>
     </row>
     <row r="11">
@@ -3635,19 +3635,19 @@
         <v>7742</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3705</v>
+        <v>2877</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17504</v>
+        <v>15761</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.007971298915544411</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.003815105891267402</v>
+        <v>0.002962424755623453</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01802236573124814</v>
+        <v>0.01622790768809145</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>14</v>
@@ -3656,19 +3656,19 @@
         <v>15692</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8689</v>
+        <v>8615</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>25727</v>
+        <v>25601</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01444973662648564</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.008001555232645062</v>
+        <v>0.007933211655699709</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02369016485663525</v>
+        <v>0.02357432538220407</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>21</v>
@@ -3677,19 +3677,19 @@
         <v>23434</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>13912</v>
+        <v>13721</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>37022</v>
+        <v>34972</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01139116032541464</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.006762366406036103</v>
+        <v>0.006669784883859405</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01799638379020605</v>
+        <v>0.01699966841122329</v>
       </c>
     </row>
     <row r="12">
@@ -3706,19 +3706,19 @@
         <v>134838</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>115492</v>
+        <v>111604</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>159885</v>
+        <v>156947</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1388306739700408</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1189116390423119</v>
+        <v>0.1149087614026675</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1646193807831328</v>
+        <v>0.1615943129925671</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>161</v>
@@ -3727,19 +3727,19 @@
         <v>170447</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>146002</v>
+        <v>145944</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>195638</v>
+        <v>196282</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1569544367181372</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1344448780261156</v>
+        <v>0.1343913034286537</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.180151226329788</v>
+        <v>0.1807444199034512</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>286</v>
@@ -3748,19 +3748,19 @@
         <v>305284</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>272588</v>
+        <v>273584</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>342761</v>
+        <v>338777</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1483979121823001</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1325042111134457</v>
+        <v>0.1329885016740335</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1666150747692575</v>
+        <v>0.1646787130121508</v>
       </c>
     </row>
     <row r="13">
@@ -3777,19 +3777,19 @@
         <v>732034</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>702876</v>
+        <v>704522</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>758032</v>
+        <v>759318</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.753712590757355</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7236911363817801</v>
+        <v>0.7253855717832273</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.780480273328009</v>
+        <v>0.781804252270901</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>747</v>
@@ -3798,19 +3798,19 @@
         <v>804283</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>772295</v>
+        <v>774551</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>831912</v>
+        <v>832732</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7406169728841163</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7111610132028179</v>
+        <v>0.7132389288621368</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7660594806723945</v>
+        <v>0.7668144296409632</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1441</v>
@@ -3819,19 +3819,19 @@
         <v>1536317</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1494072</v>
+        <v>1498475</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1575847</v>
+        <v>1575911</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7467996280645965</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7262645032953616</v>
+        <v>0.7284048299112925</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7660152842839556</v>
+        <v>0.7660461557554465</v>
       </c>
     </row>
     <row r="14">
@@ -3848,19 +3848,19 @@
         <v>95700</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>76361</v>
+        <v>78947</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>115132</v>
+        <v>116643</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.09853427130071855</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07862190998687137</v>
+        <v>0.08128532509967026</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.118541695428559</v>
+        <v>0.1200968053743509</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>86</v>
@@ -3869,19 +3869,19 @@
         <v>91167</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>74418</v>
+        <v>72953</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>111301</v>
+        <v>112366</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08395064365862447</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06852739399328249</v>
+        <v>0.06717782369666626</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.10249024630257</v>
+        <v>0.1034713212220854</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>177</v>
@@ -3890,19 +3890,19 @@
         <v>186868</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>159341</v>
+        <v>163229</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>214206</v>
+        <v>214496</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0908358125650756</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07745509666228062</v>
+        <v>0.07934542741522738</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1041251733567666</v>
+        <v>0.1042657387047895</v>
       </c>
     </row>
     <row r="15">
@@ -3997,16 +3997,16 @@
         <v>887</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8753</v>
+        <v>7576</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003303658516263972</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001010902675152863</v>
+        <v>0.001010740509447774</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.009970196326612257</v>
+        <v>0.008629605872721272</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -4028,19 +4028,19 @@
         <v>2900</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8446</v>
+        <v>7817</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.001656749898169252</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0005128141071345058</v>
+        <v>0.0005102882390743632</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.004824733015100327</v>
+        <v>0.004465167196903135</v>
       </c>
     </row>
     <row r="17">
@@ -4057,19 +4057,19 @@
         <v>8365</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3993</v>
+        <v>3855</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15185</v>
+        <v>15992</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.00952874975569519</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.00454844859104189</v>
+        <v>0.004391107760620843</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0172963431257885</v>
+        <v>0.0182159959924685</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -4078,19 +4078,19 @@
         <v>6060</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2092</v>
+        <v>2160</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13268</v>
+        <v>13186</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.006943656329031861</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.002397626155358884</v>
+        <v>0.002475609441912908</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01520302225021128</v>
+        <v>0.01510980883678176</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>14</v>
@@ -4099,19 +4099,19 @@
         <v>14425</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8382</v>
+        <v>8116</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>23975</v>
+        <v>22756</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.008240053414353455</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0047882800852644</v>
+        <v>0.004636317386624792</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01369552519105212</v>
+        <v>0.01299915663043787</v>
       </c>
     </row>
     <row r="18">
@@ -4128,19 +4128,19 @@
         <v>98863</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>81377</v>
+        <v>81046</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>120520</v>
+        <v>120301</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1126113513821371</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09269452846985489</v>
+        <v>0.09231650496326882</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1372809854395375</v>
+        <v>0.1370315535438367</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>107</v>
@@ -4149,19 +4149,19 @@
         <v>114990</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>95685</v>
+        <v>97136</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>135584</v>
+        <v>138864</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1317638908687437</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1096431418733886</v>
+        <v>0.1113054639693923</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1553619000921945</v>
+        <v>0.1591210280113698</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>200</v>
@@ -4170,19 +4170,19 @@
         <v>213852</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>186346</v>
+        <v>187476</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>244547</v>
+        <v>244063</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1221590943415282</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1064463772721061</v>
+        <v>0.1070919498580229</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1396931038434683</v>
+        <v>0.1394162863030424</v>
       </c>
     </row>
     <row r="19">
@@ -4199,19 +4199,19 @@
         <v>657125</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>628536</v>
+        <v>628790</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>684038</v>
+        <v>682515</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7485108381806957</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7159456796434166</v>
+        <v>0.7162348827430484</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7791668599137467</v>
+        <v>0.777431447727734</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>610</v>
@@ -4220,19 +4220,19 @@
         <v>648361</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>620829</v>
+        <v>622593</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>675147</v>
+        <v>674763</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7429410618058014</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7113933629977031</v>
+        <v>0.7134139216888088</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7736350267990983</v>
+        <v>0.773194124086129</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1224</v>
@@ -4241,19 +4241,19 @@
         <v>1305486</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1267228</v>
+        <v>1268276</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1341439</v>
+        <v>1342701</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7457342459065501</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7238797703310317</v>
+        <v>0.7244785032020996</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7662717435230769</v>
+        <v>0.7669925959783377</v>
       </c>
     </row>
     <row r="20">
@@ -4270,19 +4270,19 @@
         <v>110657</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>92414</v>
+        <v>92226</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>133494</v>
+        <v>133335</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.126045402165208</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1052659153143541</v>
+        <v>0.1050512146455484</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1520586302610662</v>
+        <v>0.1518772315685608</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>95</v>
@@ -4291,19 +4291,19 @@
         <v>103285</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>85546</v>
+        <v>83898</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>125245</v>
+        <v>123829</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1183513909964229</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09802520825997368</v>
+        <v>0.09613616222592986</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.143514805546732</v>
+        <v>0.1418928834587836</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>200</v>
@@ -4312,19 +4312,19 @@
         <v>213941</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>188099</v>
+        <v>186411</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>243587</v>
+        <v>243348</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1222098564393989</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.107448060982686</v>
+        <v>0.1064836782724203</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1391442415886355</v>
+        <v>0.1390081127251122</v>
       </c>
     </row>
     <row r="21">
@@ -4416,19 +4416,19 @@
         <v>3809</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>939</v>
+        <v>955</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12000</v>
+        <v>12114</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007586241908362349</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001871145114545093</v>
+        <v>0.001902595064416441</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02390006448277942</v>
+        <v>0.02412688316800618</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -4440,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5207</v>
+        <v>5154</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.002256476218190821</v>
@@ -4449,7 +4449,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01152815238961725</v>
+        <v>0.01141105156300451</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -4458,19 +4458,19 @@
         <v>4828</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1013</v>
+        <v>1880</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>12515</v>
+        <v>13245</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.005062103794015688</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001062331072637268</v>
+        <v>0.00197064316710946</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01312134041938757</v>
+        <v>0.01388655005603266</v>
       </c>
     </row>
     <row r="23">
@@ -4490,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6742</v>
+        <v>5880</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.003860347197415982</v>
@@ -4499,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01342848584491011</v>
+        <v>0.01171173070738413</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3</v>
@@ -4508,19 +4508,19 @@
         <v>3121</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>895</v>
+        <v>906</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>8985</v>
+        <v>9161</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.006909806988408246</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.001981510558118407</v>
+        <v>0.002004939959702716</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01989049592265437</v>
+        <v>0.02028149544004188</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5</v>
@@ -4529,19 +4529,19 @@
         <v>5059</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1937</v>
+        <v>1917</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>11741</v>
+        <v>11843</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.005304549088092992</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.002030503183242683</v>
+        <v>0.002009517657196072</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01231013282609317</v>
+        <v>0.01241657716643043</v>
       </c>
     </row>
     <row r="24">
@@ -4558,19 +4558,19 @@
         <v>44486</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>32706</v>
+        <v>32157</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>58543</v>
+        <v>58398</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08860284397230117</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06514023777655102</v>
+        <v>0.06404600105128318</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.116599277905943</v>
+        <v>0.1163112574776476</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>50</v>
@@ -4579,19 +4579,19 @@
         <v>55368</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>42214</v>
+        <v>42045</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>71912</v>
+        <v>70430</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1225737314391251</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0934536314801392</v>
+        <v>0.09307925341450189</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1591986338480425</v>
+        <v>0.1559182202075192</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>92</v>
@@ -4600,19 +4600,19 @@
         <v>99854</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>82777</v>
+        <v>81177</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>121071</v>
+        <v>122457</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1046912082302864</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08678654206941791</v>
+        <v>0.08510978865176726</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.126935460436671</v>
+        <v>0.1283885774880718</v>
       </c>
     </row>
     <row r="25">
@@ -4629,19 +4629,19 @@
         <v>380409</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>359953</v>
+        <v>357623</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>401153</v>
+        <v>399028</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7576563796827508</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.71691442255467</v>
+        <v>0.7122745693152313</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7989735835225913</v>
+        <v>0.7947411753907807</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>302</v>
@@ -4650,19 +4650,19 @@
         <v>330610</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>306888</v>
+        <v>310478</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>347941</v>
+        <v>348946</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7319063981504543</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6793905846652205</v>
+        <v>0.6873385176268291</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7702732430219876</v>
+        <v>0.772499416967108</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>649</v>
@@ -4671,19 +4671,19 @@
         <v>711019</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>683189</v>
+        <v>680442</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>739352</v>
+        <v>739437</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7454613764485091</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7162834904200824</v>
+        <v>0.7134036555885165</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7751665227862912</v>
+        <v>0.7752557080552269</v>
       </c>
     </row>
     <row r="26">
@@ -4700,19 +4700,19 @@
         <v>71444</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>56448</v>
+        <v>57866</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>90035</v>
+        <v>90780</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1422941872391697</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1124261919729709</v>
+        <v>0.1152506021219455</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1793227868893096</v>
+        <v>0.1808059219801964</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>55</v>
@@ -4721,19 +4721,19 @@
         <v>61592</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>47368</v>
+        <v>48141</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>78820</v>
+        <v>78258</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1363535872038215</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1048637600364519</v>
+        <v>0.106575528641774</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1744916588493405</v>
+        <v>0.1732484290591339</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>121</v>
@@ -4742,19 +4742,19 @@
         <v>133036</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>112098</v>
+        <v>110782</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>157248</v>
+        <v>157551</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1394807624390958</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1175285510969594</v>
+        <v>0.1161482892809703</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1648652492153146</v>
+        <v>0.1651830033991588</v>
       </c>
     </row>
     <row r="27">
@@ -4846,19 +4846,19 @@
         <v>14383</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>7733</v>
+        <v>7576</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>24666</v>
+        <v>24441</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.004236413372094427</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.00227750698530625</v>
+        <v>0.002231325547360009</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.007265052779362548</v>
+        <v>0.007198722054545834</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>9</v>
@@ -4867,19 +4867,19 @@
         <v>9420</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>4173</v>
+        <v>4398</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>16737</v>
+        <v>17058</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.002671525340307221</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.001183434259894571</v>
+        <v>0.001247342037673549</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.004746608664693393</v>
+        <v>0.004837703242747558</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>22</v>
@@ -4888,19 +4888,19 @@
         <v>23803</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>15229</v>
+        <v>15107</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>35508</v>
+        <v>36323</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.003439178704590548</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.002200300475910982</v>
+        <v>0.002182791023130543</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.005130332169253808</v>
+        <v>0.005248160729774822</v>
       </c>
     </row>
     <row r="29">
@@ -4917,19 +4917,19 @@
         <v>40279</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>28796</v>
+        <v>29389</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>56105</v>
+        <v>56456</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01186357860260853</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.008481599990228539</v>
+        <v>0.008656159225978451</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01652497521447021</v>
+        <v>0.01662837883354231</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>43</v>
@@ -4938,19 +4938,19 @@
         <v>47304</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>33985</v>
+        <v>34735</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>63437</v>
+        <v>63778</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01341568996398707</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.009638345418034121</v>
+        <v>0.009851082432734212</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0179911127615827</v>
+        <v>0.01808793885552289</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>80</v>
@@ -4959,19 +4959,19 @@
         <v>87583</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>70028</v>
+        <v>70532</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>109689</v>
+        <v>107352</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01265430417529019</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0101180153794018</v>
+        <v>0.0101908199299884</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01584835230007661</v>
+        <v>0.01551065357176038</v>
       </c>
     </row>
     <row r="30">
@@ -4988,19 +4988,19 @@
         <v>465722</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>424576</v>
+        <v>421795</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>511487</v>
+        <v>506705</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1371720476649719</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1250529504575411</v>
+        <v>0.1242339978591674</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1506515342863929</v>
+        <v>0.1492429775361893</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>500</v>
@@ -5009,19 +5009,19 @@
         <v>541174</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>498211</v>
+        <v>497727</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>585288</v>
+        <v>586145</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1534809402072785</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1412964184699928</v>
+        <v>0.1411592236447591</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1659920384192923</v>
+        <v>0.1662352261664818</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>930</v>
@@ -5030,19 +5030,19 @@
         <v>1006896</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>949982</v>
+        <v>946063</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1064054</v>
+        <v>1066109</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1454806386051641</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.137257406267824</v>
+        <v>0.1366912419510155</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1537390308138584</v>
+        <v>0.1540359676114499</v>
       </c>
     </row>
     <row r="31">
@@ -5059,19 +5059,19 @@
         <v>2492056</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2442855</v>
+        <v>2439335</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>2552176</v>
+        <v>2546817</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.734000715652887</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.7195093709457184</v>
+        <v>0.7184724693487904</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.7517082401187172</v>
+        <v>0.7501298247210274</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2379</v>
@@ -5080,19 +5080,19 @@
         <v>2563481</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2507156</v>
+        <v>2507623</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>2618771</v>
+        <v>2614221</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.7270222936930576</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.7110483317330385</v>
+        <v>0.711180581535498</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.7427030330255231</v>
+        <v>0.7414126635194643</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>4715</v>
@@ -5101,19 +5101,19 @@
         <v>5055537</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>4978091</v>
+        <v>4978075</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>5125694</v>
+        <v>5133979</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.7304455476166841</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.7192557890729931</v>
+        <v>0.7192535459679479</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.7405821201027498</v>
+        <v>0.7417791885533439</v>
       </c>
     </row>
     <row r="32">
@@ -5130,19 +5130,19 @@
         <v>382728</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>344354</v>
+        <v>342743</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>421432</v>
+        <v>421768</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1127272447074381</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1014248522517041</v>
+        <v>0.1009502843053868</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1241268795452725</v>
+        <v>0.1242260696084952</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>337</v>
@@ -5151,19 +5151,19 @@
         <v>364622</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>328980</v>
+        <v>328613</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>403432</v>
+        <v>402877</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1034095507953696</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.09330113478174337</v>
+        <v>0.09319707413938233</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1144163916968083</v>
+        <v>0.1142590427713354</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>700</v>
@@ -5172,19 +5172,19 @@
         <v>747350</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>698799</v>
+        <v>696303</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>801833</v>
+        <v>801888</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1079803308982711</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1009655194369302</v>
+        <v>0.1006048138246164</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.115852205110799</v>
+        <v>0.115860136426557</v>
       </c>
     </row>
     <row r="33">
@@ -5516,19 +5516,19 @@
         <v>7134</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2767</v>
+        <v>2648</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15869</v>
+        <v>16514</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006344559906707846</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002461063788321143</v>
+        <v>0.002354953468380697</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01411297589670342</v>
+        <v>0.01468649068488087</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -5537,19 +5537,19 @@
         <v>2994</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8094</v>
+        <v>8819</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002383736373717848</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0007062099183764712</v>
+        <v>0.0007066468161405159</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.006443650116557753</v>
+        <v>0.007020386932151227</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -5558,19 +5558,19 @@
         <v>10128</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4854</v>
+        <v>4913</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18051</v>
+        <v>19710</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004254580705428473</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00203878273690157</v>
+        <v>0.002063575848511186</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.007582680889892015</v>
+        <v>0.008279576851322556</v>
       </c>
     </row>
     <row r="5">
@@ -5587,19 +5587,19 @@
         <v>15762</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8949</v>
+        <v>8528</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>25854</v>
+        <v>27227</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01401725714264724</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.007958479209003999</v>
+        <v>0.007584453532594179</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02299239470091519</v>
+        <v>0.02421339422598315</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>22</v>
@@ -5608,19 +5608,19 @@
         <v>23231</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>14445</v>
+        <v>15186</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>35614</v>
+        <v>33673</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0184936557959709</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01149937512369248</v>
+        <v>0.01208908706453213</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02835186352250146</v>
+        <v>0.02680615625261002</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>36</v>
@@ -5629,19 +5629,19 @@
         <v>38992</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>27387</v>
+        <v>27748</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>52258</v>
+        <v>52448</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01637928615104868</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01150429504389438</v>
+        <v>0.01165577220128783</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02195159898092536</v>
+        <v>0.02203158747233078</v>
       </c>
     </row>
     <row r="6">
@@ -5658,19 +5658,19 @@
         <v>166842</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>142053</v>
+        <v>145345</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>191656</v>
+        <v>194082</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1483774473704044</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1263323105353243</v>
+        <v>0.1292599126736053</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1704453819328251</v>
+        <v>0.1726032287881067</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>168</v>
@@ -5679,19 +5679,19 @@
         <v>182314</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>159050</v>
+        <v>155631</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>209588</v>
+        <v>211305</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1451371652849558</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1266173017094261</v>
+        <v>0.1238951591885939</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1668495543804717</v>
+        <v>0.1682165378713077</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>325</v>
@@ -5700,19 +5700,19 @@
         <v>349156</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>314074</v>
+        <v>316014</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>384960</v>
+        <v>388071</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1466676710805848</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1319310402819158</v>
+        <v>0.1327459679834626</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1617078679009135</v>
+        <v>0.1630144752605936</v>
       </c>
     </row>
     <row r="7">
@@ -5729,19 +5729,19 @@
         <v>733034</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>701503</v>
+        <v>699232</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>765537</v>
+        <v>766026</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6519090897171133</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6238679181659771</v>
+        <v>0.6218476093613566</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6808148129015952</v>
+        <v>0.6812501814153457</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>770</v>
@@ -5750,19 +5750,19 @@
         <v>811304</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>770940</v>
+        <v>776931</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>843786</v>
+        <v>846558</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6458654769126214</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.613732098705017</v>
+        <v>0.618501595212872</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6717239975578697</v>
+        <v>0.6739305258315174</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1463</v>
@@ -5771,19 +5771,19 @@
         <v>1544338</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1495182</v>
+        <v>1494260</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1589403</v>
+        <v>1592315</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6487201001151356</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6280715996652205</v>
+        <v>0.6276842550623919</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.667650287213836</v>
+        <v>0.6688736506241945</v>
       </c>
     </row>
     <row r="8">
@@ -5800,19 +5800,19 @@
         <v>201671</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>175889</v>
+        <v>175549</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>227324</v>
+        <v>228511</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1793516458631274</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1564229907869432</v>
+        <v>0.1561209043948031</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2021660282470888</v>
+        <v>0.2032220924151</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>222</v>
@@ -5821,19 +5821,19 @@
         <v>236307</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>209475</v>
+        <v>209481</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>267658</v>
+        <v>263302</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.188119965632734</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1667598222684626</v>
+        <v>0.1667644453303446</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2130781320508085</v>
+        <v>0.2096101484481915</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>415</v>
@@ -5842,19 +5842,19 @@
         <v>437977</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>401807</v>
+        <v>400966</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>482765</v>
+        <v>475690</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1839783619478025</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1687846137526395</v>
+        <v>0.1684313109908242</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2027920724266263</v>
+        <v>0.1998199703346702</v>
       </c>
     </row>
     <row r="9">
@@ -5949,7 +5949,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7204</v>
+        <v>6169</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002250388025918532</v>
@@ -5958,7 +5958,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.007934130055908159</v>
+        <v>0.006794186188391886</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -5967,19 +5967,19 @@
         <v>3167</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9013</v>
+        <v>10103</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.003160785758516032</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0009425046250760918</v>
+        <v>0.0009396645299867695</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.008993752383517869</v>
+        <v>0.01008209343161759</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -5988,19 +5988,19 @@
         <v>5211</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1988</v>
+        <v>1929</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11968</v>
+        <v>11752</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002728024665962624</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001040589751789377</v>
+        <v>0.001009979179677398</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.006265506028968698</v>
+        <v>0.006152461681800198</v>
       </c>
     </row>
     <row r="11">
@@ -6017,19 +6017,19 @@
         <v>11775</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6108</v>
+        <v>6077</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>21821</v>
+        <v>20781</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01296857117123517</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.006727274588285673</v>
+        <v>0.006693250116314485</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0240331811355826</v>
+        <v>0.02288740148050327</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>15</v>
@@ -6038,19 +6038,19 @@
         <v>16710</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>10275</v>
+        <v>9413</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>29022</v>
+        <v>28137</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01667499748014031</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01025313652221077</v>
+        <v>0.00939354858746389</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02896047310583665</v>
+        <v>0.02807773733756923</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>26</v>
@@ -6059,19 +6059,19 @@
         <v>28485</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>19706</v>
+        <v>18922</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>41232</v>
+        <v>41511</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01491313336132924</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01031675005011193</v>
+        <v>0.009906212519656506</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02158674547183414</v>
+        <v>0.021732648773324</v>
       </c>
     </row>
     <row r="12">
@@ -6088,19 +6088,19 @@
         <v>116145</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>97879</v>
+        <v>99200</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>136831</v>
+        <v>137297</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1279187442614221</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1078005023988701</v>
+        <v>0.1092563371064287</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1507010920571501</v>
+        <v>0.1512145776490146</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>106</v>
@@ -6109,19 +6109,19 @@
         <v>113043</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>94392</v>
+        <v>91851</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>136835</v>
+        <v>133604</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1128045970299983</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09419335808807897</v>
+        <v>0.0916576528148059</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1365469753997955</v>
+        <v>0.1333226523734203</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>221</v>
@@ -6130,19 +6130,19 @@
         <v>229188</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>202231</v>
+        <v>201573</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>259978</v>
+        <v>257128</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1199891655264753</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1058762896932475</v>
+        <v>0.1055314488673305</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1361089876495053</v>
+        <v>0.1346170318534487</v>
       </c>
     </row>
     <row r="13">
@@ -6159,19 +6159,19 @@
         <v>570673</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>539691</v>
+        <v>543151</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>597722</v>
+        <v>603314</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6285217933408751</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5943995704173043</v>
+        <v>0.5982108012252543</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6583136649822131</v>
+        <v>0.6644722183940888</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>588</v>
@@ -6180,19 +6180,19 @@
         <v>622590</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>591107</v>
+        <v>591485</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>652882</v>
+        <v>654946</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6212784912602363</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5898617397140715</v>
+        <v>0.5902394166624106</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6515063469284216</v>
+        <v>0.6535661253033082</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1141</v>
@@ -6201,19 +6201,19 @@
         <v>1193263</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1149325</v>
+        <v>1149724</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1237113</v>
+        <v>1236934</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6247216229925266</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6017184943743459</v>
+        <v>0.6019273403232903</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6476792129161003</v>
+        <v>0.6475856105051961</v>
       </c>
     </row>
     <row r="14">
@@ -6230,19 +6230,19 @@
         <v>207324</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>180445</v>
+        <v>178942</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>230851</v>
+        <v>230056</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.228340503200549</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1987369030690976</v>
+        <v>0.1970815790390613</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2542520920100264</v>
+        <v>0.2533773135554707</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>235</v>
@@ -6251,19 +6251,19 @@
         <v>246601</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>219368</v>
+        <v>217265</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>273208</v>
+        <v>273811</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2460811284711091</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2189057447303156</v>
+        <v>0.2168073140031972</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2726327230704703</v>
+        <v>0.273233994635083</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>434</v>
@@ -6272,19 +6272,19 @@
         <v>453925</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>417822</v>
+        <v>415541</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>491839</v>
+        <v>490913</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2376480534537062</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2187467279065771</v>
+        <v>0.2175526203774463</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2574979311611419</v>
+        <v>0.2570128206036629</v>
       </c>
     </row>
     <row r="15">
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6897</v>
+        <v>6189</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002484993926118289</v>
@@ -6388,7 +6388,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.00840786787397565</v>
+        <v>0.007544620384433409</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7139</v>
+        <v>7100</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.001281748763603264</v>
@@ -6422,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.004488727963748151</v>
+        <v>0.004464350254647498</v>
       </c>
     </row>
     <row r="17">
@@ -6439,19 +6439,19 @@
         <v>5231</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1955</v>
+        <v>2033</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11523</v>
+        <v>11571</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.006375940171215346</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.00238286877918251</v>
+        <v>0.002477684339826012</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01404649165263392</v>
+        <v>0.01410520547442973</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>12</v>
@@ -6460,19 +6460,19 @@
         <v>13692</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7733</v>
+        <v>7501</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>24329</v>
+        <v>22753</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01777869283731969</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01004158683427909</v>
+        <v>0.009740297305670323</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03159117353158633</v>
+        <v>0.02954510123340831</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>17</v>
@@ -6481,19 +6481,19 @@
         <v>18922</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>10765</v>
+        <v>11763</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>29755</v>
+        <v>29654</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01189720396210006</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.006768399662485798</v>
+        <v>0.007396154441327174</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01870813976429545</v>
+        <v>0.01864488437328934</v>
       </c>
     </row>
     <row r="18">
@@ -6510,19 +6510,19 @@
         <v>75954</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>59402</v>
+        <v>59661</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>92591</v>
+        <v>96884</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.09258648629516995</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07240941935621698</v>
+        <v>0.07272495296261711</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1128654455638586</v>
+        <v>0.1180988018265167</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>73</v>
@@ -6531,19 +6531,19 @@
         <v>80530</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>62979</v>
+        <v>62408</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>99132</v>
+        <v>98412</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1045682613173994</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08177810966928979</v>
+        <v>0.08103751384396564</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1287235995169116</v>
+        <v>0.1277877997655151</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>146</v>
@@ -6552,19 +6552,19 @@
         <v>156484</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>131826</v>
+        <v>131393</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>180203</v>
+        <v>181433</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.09838811529808715</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08288424422852823</v>
+        <v>0.08261220508534693</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1133013355089626</v>
+        <v>0.1140744606056442</v>
       </c>
     </row>
     <row r="19">
@@ -6581,19 +6581,19 @@
         <v>512740</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>483379</v>
+        <v>486546</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>541633</v>
+        <v>539167</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6250166851042731</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5892270199333787</v>
+        <v>0.5930863589834057</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6602361855829685</v>
+        <v>0.6572309597593203</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>443</v>
@@ -6602,19 +6602,19 @@
         <v>469671</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>438671</v>
+        <v>439135</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>496593</v>
+        <v>496917</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6098696247902305</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5696157841261508</v>
+        <v>0.5702189778069378</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6448282359591563</v>
+        <v>0.6452484868621969</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>929</v>
@@ -6623,19 +6623,19 @@
         <v>982411</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>943168</v>
+        <v>940894</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1024253</v>
+        <v>1023537</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.617682410819883</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.59300852703778</v>
+        <v>0.5915788169668617</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6439904550733919</v>
+        <v>0.6435400950433157</v>
       </c>
     </row>
     <row r="20">
@@ -6652,19 +6652,19 @@
         <v>224398</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>199161</v>
+        <v>197397</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>250378</v>
+        <v>248725</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2735358945032234</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2427725190629527</v>
+        <v>0.2406222194429232</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3052047073620832</v>
+        <v>0.3031896758642403</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>199</v>
@@ -6673,19 +6673,19 @@
         <v>206225</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>181856</v>
+        <v>180093</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>232425</v>
+        <v>230640</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2677834210550503</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2361411318775606</v>
+        <v>0.2338518863943851</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3018053869610209</v>
+        <v>0.2994870975077364</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>417</v>
@@ -6694,19 +6694,19 @@
         <v>430623</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>395345</v>
+        <v>395664</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>467766</v>
+        <v>471864</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2707505211563265</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2485696702248206</v>
+        <v>0.2487702582421518</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2941040581842085</v>
+        <v>0.2966801486471958</v>
       </c>
     </row>
     <row r="21">
@@ -6814,7 +6814,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4497</v>
+        <v>5249</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.001940082481983014</v>
@@ -6823,7 +6823,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.009283487022164491</v>
+        <v>0.0108366482367379</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1</v>
@@ -6835,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4421</v>
+        <v>5207</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0009490595902624423</v>
@@ -6844,7 +6844,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.004464597499331614</v>
+        <v>0.005258706327965779</v>
       </c>
     </row>
     <row r="23">
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7084</v>
+        <v>6934</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.004035032980266182</v>
@@ -6873,7 +6873,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01400538098713518</v>
+        <v>0.0137089220449451</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>12</v>
@@ -6882,19 +6882,19 @@
         <v>13648</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>7470</v>
+        <v>7579</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>22903</v>
+        <v>23579</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02817501820166252</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01542162754964901</v>
+        <v>0.01564575580391965</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04728182031161388</v>
+        <v>0.04867774017092812</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>14</v>
@@ -6903,19 +6903,19 @@
         <v>15688</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>9364</v>
+        <v>8541</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>26605</v>
+        <v>24989</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01584395589767872</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.009456318215442213</v>
+        <v>0.008625742332173777</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02686873329256485</v>
+        <v>0.02523670214652349</v>
       </c>
     </row>
     <row r="24">
@@ -6932,19 +6932,19 @@
         <v>53933</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>41769</v>
+        <v>40864</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>70101</v>
+        <v>69861</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.106628344495834</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08257965297034234</v>
+        <v>0.08079050976596461</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1385939682705768</v>
+        <v>0.1381198166263381</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>62</v>
@@ -6953,19 +6953,19 @@
         <v>68677</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>54012</v>
+        <v>54561</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>85404</v>
+        <v>89160</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1417823353907407</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1115066756843954</v>
+        <v>0.112640750194355</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1763134538507506</v>
+        <v>0.1840678210296984</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>111</v>
@@ -6974,19 +6974,19 @@
         <v>122610</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>101026</v>
+        <v>102616</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>147343</v>
+        <v>142557</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1238251557163076</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1020274259509202</v>
+        <v>0.1036327484950633</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1488027288826163</v>
+        <v>0.143969629063239</v>
       </c>
     </row>
     <row r="25">
@@ -7003,19 +7003,19 @@
         <v>341203</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>318557</v>
+        <v>316753</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>362683</v>
+        <v>361380</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6745775251346335</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6298043663324719</v>
+        <v>0.6262382140187851</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7170447637208784</v>
+        <v>0.7144674104117668</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>296</v>
@@ -7024,19 +7024,19 @@
         <v>318371</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>297245</v>
+        <v>298828</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>340483</v>
+        <v>339014</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6572682813323502</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6136552912784513</v>
+        <v>0.61692265665087</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7029187364216383</v>
+        <v>0.6998858869192358</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>612</v>
@@ -7045,19 +7045,19 @@
         <v>659574</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>628448</v>
+        <v>630219</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>688761</v>
+        <v>690512</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6661100996600441</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6346756766110232</v>
+        <v>0.6364641402941208</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6955858258328206</v>
+        <v>0.6973540777420619</v>
       </c>
     </row>
     <row r="26">
@@ -7074,19 +7074,19 @@
         <v>108626</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>89730</v>
+        <v>92182</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>128996</v>
+        <v>128765</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2147590973892663</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1774014376581577</v>
+        <v>0.1822488044944436</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.255032361058555</v>
+        <v>0.2545746528272376</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>79</v>
@@ -7095,19 +7095,19 @@
         <v>82750</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>65920</v>
+        <v>65869</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>100051</v>
+        <v>99795</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1708342825932636</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1360906130587708</v>
+        <v>0.1359843169853777</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2065531995949315</v>
+        <v>0.2060240834598417</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>182</v>
@@ -7116,19 +7116,19 @@
         <v>191375</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>167549</v>
+        <v>166225</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>218403</v>
+        <v>218982</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1932717291357072</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1692096484085484</v>
+        <v>0.1678723633994551</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2205671987317761</v>
+        <v>0.2211520182927556</v>
       </c>
     </row>
     <row r="27">
@@ -7220,19 +7220,19 @@
         <v>11216</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5623</v>
+        <v>5218</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>19782</v>
+        <v>19373</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.003339503975623894</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.001674287127167752</v>
+        <v>0.001553756065545567</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.005889950439101788</v>
+        <v>0.005768230371946338</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>7</v>
@@ -7241,19 +7241,19 @@
         <v>7102</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2941</v>
+        <v>3146</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>14139</v>
+        <v>14746</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.002021638133302057</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0008372982547093686</v>
+        <v>0.0008956728183108281</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.004025138715841945</v>
+        <v>0.004197794623688091</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>17</v>
@@ -7262,19 +7262,19 @@
         <v>18317</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>11097</v>
+        <v>10789</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>29052</v>
+        <v>28975</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.002665784184926478</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.001614927148802991</v>
+        <v>0.001570188270893169</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.004227959522302505</v>
+        <v>0.004216827231220223</v>
       </c>
     </row>
     <row r="29">
@@ -7291,19 +7291,19 @@
         <v>34808</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>24121</v>
+        <v>23337</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>48661</v>
+        <v>47327</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01036395829624634</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.00718184399555095</v>
+        <v>0.006948583900727457</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01448862002768081</v>
+        <v>0.01409143968311378</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>61</v>
@@ -7312,19 +7312,19 @@
         <v>67280</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>51146</v>
+        <v>53282</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>84905</v>
+        <v>86127</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01915308152840402</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01456018099166847</v>
+        <v>0.01516816231950875</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02417040031856692</v>
+        <v>0.02451817456680537</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>93</v>
@@ -7333,19 +7333,19 @@
         <v>102088</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>83117</v>
+        <v>83003</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>123901</v>
+        <v>124083</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01485713664128231</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01209617913118881</v>
+        <v>0.01207962111651834</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01803162935168845</v>
+        <v>0.01805807838030877</v>
       </c>
     </row>
     <row r="30">
@@ -7362,19 +7362,19 @@
         <v>412874</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>374797</v>
+        <v>376560</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>454429</v>
+        <v>453296</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1229316885467849</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1115942925740482</v>
+        <v>0.1121191849280713</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1353043425714472</v>
+        <v>0.1349669839830486</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>409</v>
@@ -7383,19 +7383,19 @@
         <v>444564</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>403806</v>
+        <v>405054</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>486097</v>
+        <v>487619</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1265567311029152</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1149540501132093</v>
+        <v>0.1153092495511292</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.138380180282606</v>
+        <v>0.1388135134700061</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>803</v>
@@ -7404,19 +7404,19 @@
         <v>857438</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>807597</v>
+        <v>800241</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>912597</v>
+        <v>913488</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1247848839432772</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1175314587321597</v>
+        <v>0.1164608256772265</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1328122633928561</v>
+        <v>0.1329418975956569</v>
       </c>
     </row>
     <row r="31">
@@ -7433,19 +7433,19 @@
         <v>2157649</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2100691</v>
+        <v>2107659</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>2213332</v>
+        <v>2212304</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.6424316915758085</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.6254725049865081</v>
+        <v>0.6275473967226091</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.6590111607317598</v>
+        <v>0.6587049059646749</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2097</v>
@@ -7454,19 +7454,19 @@
         <v>2221936</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2163360</v>
+        <v>2164394</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>2282892</v>
+        <v>2278331</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.6325322230812827</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.6158569637715851</v>
+        <v>0.6161513844211829</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.6498849144479911</v>
+        <v>0.6485865063657408</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>4145</v>
@@ -7475,19 +7475,19 @@
         <v>4379586</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>4297617</v>
+        <v>4298016</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>4458549</v>
+        <v>4460978</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.6373708821762741</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.6254418453707187</v>
+        <v>0.6254998336956021</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.6488625795254523</v>
+        <v>0.6492161497789987</v>
       </c>
     </row>
     <row r="32">
@@ -7504,19 +7504,19 @@
         <v>742019</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>693077</v>
+        <v>697016</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>794007</v>
+        <v>787585</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2209331576055364</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2063608409456969</v>
+        <v>0.2075339359856337</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2364125195036831</v>
+        <v>0.234500523859302</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>735</v>
@@ -7525,19 +7525,19 @@
         <v>771882</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>719049</v>
+        <v>723454</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>820553</v>
+        <v>824323</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2197363261540961</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2046960581880164</v>
+        <v>0.2059501781945758</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2335919090791296</v>
+        <v>0.2346649997010621</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1448</v>
@@ -7546,19 +7546,19 @@
         <v>1513900</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1446971</v>
+        <v>1446661</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1588756</v>
+        <v>1591505</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2203213130542399</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2105809802476315</v>
+        <v>0.210535824714494</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2312151885698615</v>
+        <v>0.2316152344906683</v>
       </c>
     </row>
     <row r="33">
@@ -7890,19 +7890,19 @@
         <v>5960</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2138</v>
+        <v>2182</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12828</v>
+        <v>13456</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01202401146869178</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004313113655082943</v>
+        <v>0.004402325444031239</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02588062668539482</v>
+        <v>0.02714760921271285</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -7911,19 +7911,19 @@
         <v>5418</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2146</v>
+        <v>1960</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12587</v>
+        <v>11803</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.008737146114950635</v>
+        <v>0.008737146114950637</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003460081836164376</v>
+        <v>0.003160461755284461</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02029871089957833</v>
+        <v>0.01903292296034505</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -7932,19 +7932,19 @@
         <v>11378</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6043</v>
+        <v>6264</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20453</v>
+        <v>20140</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01019726764564965</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005416012134814562</v>
+        <v>0.005613842634889819</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01833127776910688</v>
+        <v>0.01805054551927787</v>
       </c>
     </row>
     <row r="5">
@@ -7961,19 +7961,19 @@
         <v>8352</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3087</v>
+        <v>3379</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16319</v>
+        <v>17266</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01684954540298402</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.006227746190393743</v>
+        <v>0.00681679636675532</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03292346379806181</v>
+        <v>0.03483460034828584</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>20</v>
@@ -7982,19 +7982,19 @@
         <v>13533</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8636</v>
+        <v>8197</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>21992</v>
+        <v>20806</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02182417033223471</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01392655611424918</v>
+        <v>0.0132178373018683</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03546457230062711</v>
+        <v>0.03355259710421574</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>27</v>
@@ -8003,19 +8003,19 @@
         <v>21885</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>14362</v>
+        <v>14103</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>33189</v>
+        <v>32778</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.01961429673394948</v>
+        <v>0.01961429673394947</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01287189160126177</v>
+        <v>0.01263950046893203</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02974548558832952</v>
+        <v>0.029376798143459</v>
       </c>
     </row>
     <row r="6">
@@ -8032,19 +8032,19 @@
         <v>63668</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>48510</v>
+        <v>49187</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>80929</v>
+        <v>80481</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1284522766671777</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09786933645963067</v>
+        <v>0.09923623038726002</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1632754401319725</v>
+        <v>0.1623727671348834</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>113</v>
@@ -8053,19 +8053,19 @@
         <v>83012</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>70209</v>
+        <v>70143</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>100058</v>
+        <v>100672</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1338657155886848</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1132194861465892</v>
+        <v>0.113113575748359</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1613557361838809</v>
+        <v>0.1623451187034089</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>172</v>
@@ -8074,19 +8074,19 @@
         <v>146680</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>125229</v>
+        <v>125518</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>170422</v>
+        <v>170576</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1314609080064637</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1122358313249383</v>
+        <v>0.1124944727050899</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1527396402552761</v>
+        <v>0.1528775322772259</v>
       </c>
     </row>
     <row r="7">
@@ -8103,19 +8103,19 @@
         <v>316367</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>289779</v>
+        <v>290714</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>339972</v>
+        <v>339154</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6382786927432268</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5846358377384758</v>
+        <v>0.5865220268366862</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6859014419120357</v>
+        <v>0.6842518741175263</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>552</v>
@@ -8124,19 +8124,19 @@
         <v>406866</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>385108</v>
+        <v>384542</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>428411</v>
+        <v>429030</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6561179179547678</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6210309922133116</v>
+        <v>0.6201176158361085</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6908616033909143</v>
+        <v>0.6918596558421264</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>848</v>
@@ -8145,19 +8145,19 @@
         <v>723233</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>688250</v>
+        <v>690455</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>754002</v>
+        <v>755047</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6481932134052758</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6168393984354645</v>
+        <v>0.618816019774296</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6757698020299758</v>
+        <v>0.6767056862683121</v>
       </c>
     </row>
     <row r="8">
@@ -8174,19 +8174,19 @@
         <v>101310</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>82843</v>
+        <v>82036</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>127629</v>
+        <v>125506</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2043954737179197</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1671385772831607</v>
+        <v>0.165508888290638</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2574952095231152</v>
+        <v>0.2532105963084729</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>164</v>
@@ -8195,19 +8195,19 @@
         <v>111282</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>94979</v>
+        <v>94855</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>131227</v>
+        <v>129896</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.179455050009362</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1531640885306459</v>
+        <v>0.1529637912116867</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2116187441786936</v>
+        <v>0.2094725364601959</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>248</v>
@@ -8216,19 +8216,19 @@
         <v>212592</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>186295</v>
+        <v>185092</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>241260</v>
+        <v>241099</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1905343142086613</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1669656211129522</v>
+        <v>0.1658872565342664</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2162274358851789</v>
+        <v>0.2160832279694412</v>
       </c>
     </row>
     <row r="9">
@@ -8323,7 +8323,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7980</v>
+        <v>8654</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002514557515236729</v>
@@ -8332,7 +8332,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.008311758902266387</v>
+        <v>0.00901328150862506</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -8341,19 +8341,19 @@
         <v>1684</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4656</v>
+        <v>4459</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.001511349114232321</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0004096299268716465</v>
+        <v>0.0004082826294125738</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.004178460054101224</v>
+        <v>0.004001941214070353</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -8362,19 +8362,19 @@
         <v>4098</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1356</v>
+        <v>1145</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9664</v>
+        <v>9648</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001975692650790812</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0006537833027439259</v>
+        <v>0.0005520027990010716</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.004658989473610536</v>
+        <v>0.00465126113019537</v>
       </c>
     </row>
     <row r="11">
@@ -8391,19 +8391,19 @@
         <v>8116</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2873</v>
+        <v>3369</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17944</v>
+        <v>18568</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.008452635149106968</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002992287014335872</v>
+        <v>0.003508749501931118</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01868951551967247</v>
+        <v>0.0193386276162971</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -8412,19 +8412,19 @@
         <v>7196</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3469</v>
+        <v>3419</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>14467</v>
+        <v>14599</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.006458647934691602</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.003113744366860575</v>
+        <v>0.003068224339869517</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01298379838596725</v>
+        <v>0.01310190975842351</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>16</v>
@@ -8433,19 +8433,19 @@
         <v>15312</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8162</v>
+        <v>8849</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>25638</v>
+        <v>27569</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.007381581867528531</v>
+        <v>0.00738158186752853</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.00393464624384429</v>
+        <v>0.004265793878225202</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01235946492610126</v>
+        <v>0.01329029119682592</v>
       </c>
     </row>
     <row r="12">
@@ -8462,19 +8462,19 @@
         <v>81634</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>65002</v>
+        <v>63979</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>104610</v>
+        <v>103943</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08502347583464021</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06770067745504195</v>
+        <v>0.06663485699924865</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1089531160302559</v>
+        <v>0.108258262345268</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>124</v>
@@ -8483,19 +8483,19 @@
         <v>99481</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>81697</v>
+        <v>81852</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>119203</v>
+        <v>119577</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08928287691446225</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07332139996866176</v>
+        <v>0.07346071769441362</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1069828150096676</v>
+        <v>0.1073186629469609</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>199</v>
@@ -8504,19 +8504,19 @@
         <v>181115</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>157222</v>
+        <v>156211</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>211651</v>
+        <v>210758</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.08731137691601185</v>
+        <v>0.08731137691601183</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07579304923473097</v>
+        <v>0.07530533198078107</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1020316875764073</v>
+        <v>0.1016012540954448</v>
       </c>
     </row>
     <row r="13">
@@ -8533,19 +8533,19 @@
         <v>656844</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>621386</v>
+        <v>623115</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>687302</v>
+        <v>689144</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.684114682740015</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6471848281646978</v>
+        <v>0.6489851552947062</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7158369654449008</v>
+        <v>0.717755833418219</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1139</v>
@@ -8554,19 +8554,19 @@
         <v>791715</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>764521</v>
+        <v>762469</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>817892</v>
+        <v>819757</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7105508471296451</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6861451515186344</v>
+        <v>0.6843028734296949</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7340447431751987</v>
+        <v>0.7357180299328774</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1773</v>
@@ -8575,19 +8575,19 @@
         <v>1448558</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1405370</v>
+        <v>1408700</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1489866</v>
+        <v>1488300</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6983146437112603</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6774947638628096</v>
+        <v>0.6791002721487687</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.71822819663107</v>
+        <v>0.7174734364358275</v>
       </c>
     </row>
     <row r="14">
@@ -8604,19 +8604,19 @@
         <v>211129</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>182904</v>
+        <v>183257</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>242427</v>
+        <v>242355</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2198946487610013</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.190498209018063</v>
+        <v>0.190865528896814</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2524925754318881</v>
+        <v>0.252417245957908</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>329</v>
@@ -8625,19 +8625,19 @@
         <v>214150</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>191243</v>
+        <v>191992</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>237234</v>
+        <v>239094</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1921962789069688</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1716376399440853</v>
+        <v>0.1723097436467061</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2129131517275857</v>
+        <v>0.2145828102727966</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>521</v>
@@ -8646,19 +8646,19 @@
         <v>425279</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>390119</v>
+        <v>392915</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>460976</v>
+        <v>460211</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2050167048544086</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1880666730823807</v>
+        <v>0.1894145551676613</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.222225093991085</v>
+        <v>0.2218563853124559</v>
       </c>
     </row>
     <row r="15">
@@ -8763,19 +8763,19 @@
         <v>2359</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>700</v>
+        <v>725</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5897</v>
+        <v>6369</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.002253948296287665</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0006683685425113063</v>
+        <v>0.0006922193629479768</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.005633079951822745</v>
+        <v>0.006084474244530091</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -8784,19 +8784,19 @@
         <v>2359</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>662</v>
+        <v>693</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6164</v>
+        <v>6359</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.001127139369705426</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00031610741730771</v>
+        <v>0.0003312837368908875</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.002944477713317569</v>
+        <v>0.003037995672070234</v>
       </c>
     </row>
     <row r="17">
@@ -8816,7 +8816,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5184</v>
+        <v>5109</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.001392633834642915</v>
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.004953770403412195</v>
+        <v>0.004881686862017369</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>12</v>
@@ -8834,19 +8834,19 @@
         <v>7956</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4257</v>
+        <v>4164</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14245</v>
+        <v>13845</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.007600349464333294</v>
+        <v>0.007600349464333293</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.004067079509173581</v>
+        <v>0.003978260193957569</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01360828630871417</v>
+        <v>0.01322588737863034</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>14</v>
@@ -8855,19 +8855,19 @@
         <v>9413</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5337</v>
+        <v>5229</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>15432</v>
+        <v>15699</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.004496946694740009</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.002549417021745682</v>
+        <v>0.002498003698079783</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.00737232316616108</v>
+        <v>0.007499629624962674</v>
       </c>
     </row>
     <row r="18">
@@ -8884,19 +8884,19 @@
         <v>56421</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>42597</v>
+        <v>43327</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>74926</v>
+        <v>74835</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05391511581276056</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04070527561935831</v>
+        <v>0.04140260016661328</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07159832397179329</v>
+        <v>0.07151151700823086</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>102</v>
@@ -8905,19 +8905,19 @@
         <v>76358</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>62728</v>
+        <v>62392</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>93520</v>
+        <v>94630</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.07294483871592233</v>
+        <v>0.07294483871592232</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05992445753676522</v>
+        <v>0.05960309803890752</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08933986049670189</v>
+        <v>0.09040063147748237</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>158</v>
@@ -8926,19 +8926,19 @@
         <v>132779</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>110792</v>
+        <v>110605</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>156168</v>
+        <v>156770</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06343137220340901</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05292781563574071</v>
+        <v>0.05283834140944866</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07460518692584951</v>
+        <v>0.0748924608172334</v>
       </c>
     </row>
     <row r="19">
@@ -8955,19 +8955,19 @@
         <v>772255</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>740027</v>
+        <v>739831</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>801457</v>
+        <v>802409</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7379554358428845</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7071592307019249</v>
+        <v>0.706971888628702</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7658604611402064</v>
+        <v>0.7667706783009813</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1121</v>
@@ -8976,19 +8976,19 @@
         <v>768075</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>740818</v>
+        <v>741850</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>793970</v>
+        <v>792507</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.7337462371615461</v>
+        <v>0.7337462371615462</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7077074783224521</v>
+        <v>0.7086929014802279</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7584831574329061</v>
+        <v>0.7570857581277486</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1892</v>
@@ -8997,19 +8997,19 @@
         <v>1540330</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1499172</v>
+        <v>1498468</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1576417</v>
+        <v>1580898</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7358505279545968</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7161884636100264</v>
+        <v>0.7158521051361896</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7530899691358373</v>
+        <v>0.7552306862207097</v>
       </c>
     </row>
     <row r="20">
@@ -9026,19 +9026,19 @@
         <v>216346</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>187980</v>
+        <v>188218</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>249299</v>
+        <v>247645</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.206736814509712</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1796309587970395</v>
+        <v>0.1798581094842655</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2382268829852233</v>
+        <v>0.2366460884009985</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>275</v>
@@ -9047,19 +9047,19 @@
         <v>192038</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>167661</v>
+        <v>171665</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>214239</v>
+        <v>213975</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1834546263619106</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.160167156037912</v>
+        <v>0.1639928802950362</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2046633550843152</v>
+        <v>0.2044110924031217</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>475</v>
@@ -9068,19 +9068,19 @@
         <v>408383</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>377196</v>
+        <v>369441</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>446936</v>
+        <v>445096</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1950940137775488</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.180195027888514</v>
+        <v>0.1764901243922918</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2135115774489225</v>
+        <v>0.2126323910896336</v>
       </c>
     </row>
     <row r="21">
@@ -9185,19 +9185,19 @@
         <v>1431</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3652</v>
+        <v>4070</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.001576476032342481</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0004674541649959649</v>
+        <v>0.0004694901617898814</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.00402249860634469</v>
+        <v>0.004483215023115291</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3</v>
@@ -9206,19 +9206,19 @@
         <v>1431</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3755</v>
+        <v>4025</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0007605857709651395</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0002266356018862598</v>
+        <v>0.0002256312326427324</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.001995760931375745</v>
+        <v>0.002139071353019951</v>
       </c>
     </row>
     <row r="23">
@@ -9235,19 +9235,19 @@
         <v>10621</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6186</v>
+        <v>5532</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>18097</v>
+        <v>18256</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01090659770784951</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.00635267865707023</v>
+        <v>0.005680552940512429</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01858427083689001</v>
+        <v>0.01874728300444741</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>11</v>
@@ -9256,19 +9256,19 @@
         <v>8026</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4074</v>
+        <v>4053</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>15035</v>
+        <v>14690</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.008841553605693138</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.004487951160054443</v>
+        <v>0.004464607832879846</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01656176789325733</v>
+        <v>0.01618232743553024</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>24</v>
@@ -9277,19 +9277,19 @@
         <v>18647</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>12191</v>
+        <v>12776</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>28098</v>
+        <v>29145</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.009910297651081883</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.006479127805790156</v>
+        <v>0.006790070594785167</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01493288712558337</v>
+        <v>0.01548971287842616</v>
       </c>
     </row>
     <row r="24">
@@ -9306,19 +9306,19 @@
         <v>62335</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>47513</v>
+        <v>45810</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>81518</v>
+        <v>79946</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.06401227041093685</v>
+        <v>0.06401227041093684</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04879183773713205</v>
+        <v>0.04704272879726894</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08371104850843927</v>
+        <v>0.08209681599220915</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>107</v>
@@ -9327,19 +9327,19 @@
         <v>68611</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>57113</v>
+        <v>55913</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>82475</v>
+        <v>82516</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.07557988367013485</v>
+        <v>0.07557988367013486</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06291420372321703</v>
+        <v>0.06159291290840275</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09085290983451912</v>
+        <v>0.09089771942119795</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>165</v>
@@ -9348,19 +9348,19 @@
         <v>130946</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>110379</v>
+        <v>111278</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>154083</v>
+        <v>153719</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06959317482589361</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05866269018408913</v>
+        <v>0.05914061107878137</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0818900797874058</v>
+        <v>0.08169658535452676</v>
       </c>
     </row>
     <row r="25">
@@ -9377,19 +9377,19 @@
         <v>726382</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>696414</v>
+        <v>693121</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>755273</v>
+        <v>756829</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7459269781099037</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7151523884574308</v>
+        <v>0.7117704156822202</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7755948586515029</v>
+        <v>0.777193291836666</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>987</v>
@@ -9398,19 +9398,19 @@
         <v>671819</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>646298</v>
+        <v>648388</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>695765</v>
+        <v>696878</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7400604437913281</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7119461211700302</v>
+        <v>0.714248382312583</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7664382824451559</v>
+        <v>0.7676645985403006</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1707</v>
@@ -9419,19 +9419,19 @@
         <v>1398202</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1359489</v>
+        <v>1358958</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1436457</v>
+        <v>1434570</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7430966131465003</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7225215329151544</v>
+        <v>0.7222395793037402</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7634276441998792</v>
+        <v>0.7624247249273519</v>
       </c>
     </row>
     <row r="26">
@@ -9448,19 +9448,19 @@
         <v>174460</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>148592</v>
+        <v>147232</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>203583</v>
+        <v>204938</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1791541537713099</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1525900255651482</v>
+        <v>0.1511938907262539</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2090603765259091</v>
+        <v>0.2104523698427987</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>212</v>
@@ -9469,19 +9469,19 @@
         <v>157902</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>137688</v>
+        <v>137794</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>181721</v>
+        <v>181085</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1739416429005015</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.151673844989993</v>
+        <v>0.1517910881778138</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2001793094384704</v>
+        <v>0.1994786016237192</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>366</v>
@@ -9490,19 +9490,19 @@
         <v>332363</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>295627</v>
+        <v>299215</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>367352</v>
+        <v>367926</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.176639328605559</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1571153904933993</v>
+        <v>0.1590224573814043</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1952350934805255</v>
+        <v>0.1955400148395164</v>
       </c>
     </row>
     <row r="27">
@@ -9594,19 +9594,19 @@
         <v>8374</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3688</v>
+        <v>3638</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>16729</v>
+        <v>17056</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.002409070675361074</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.00106103284593148</v>
+        <v>0.001046471293177401</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.004812613982566647</v>
+        <v>0.004906659746111471</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>16</v>
@@ -9615,19 +9615,19 @@
         <v>10892</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>5916</v>
+        <v>6705</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>18530</v>
+        <v>18447</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.00295276571208206</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.001603839863700813</v>
+        <v>0.001817487432508762</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.005023031688813305</v>
+        <v>0.00500058825419834</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>24</v>
@@ -9636,19 +9636,19 @@
         <v>19267</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>12102</v>
+        <v>11976</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>29943</v>
+        <v>29179</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.002688993702064684</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.001689048780421107</v>
+        <v>0.001671447348970506</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.004179109817585917</v>
+        <v>0.004072444409324252</v>
       </c>
     </row>
     <row r="29">
@@ -9665,19 +9665,19 @@
         <v>28545</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>19238</v>
+        <v>19517</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>41876</v>
+        <v>42326</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.008211991343119581</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.005534349649515611</v>
+        <v>0.005614747795548248</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01204691922267001</v>
+        <v>0.01217634027524354</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>52</v>
@@ -9686,19 +9686,19 @@
         <v>36712</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>27155</v>
+        <v>27174</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>47912</v>
+        <v>48659</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.009951987310332724</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.007361137178069212</v>
+        <v>0.007366419120436144</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01298817230522075</v>
+        <v>0.01319061773722917</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>81</v>
@@ -9707,19 +9707,19 @@
         <v>65257</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>51027</v>
+        <v>51584</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>82299</v>
+        <v>82607</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.009107833505909697</v>
+        <v>0.009107833505909695</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.007121664534966403</v>
+        <v>0.007199445889284149</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01148633493271922</v>
+        <v>0.01152921265400958</v>
       </c>
     </row>
     <row r="30">
@@ -9736,19 +9736,19 @@
         <v>264058</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>230935</v>
+        <v>229932</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>305493</v>
+        <v>299993</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.07596464061589835</v>
+        <v>0.07596464061589836</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.06643550597195197</v>
+        <v>0.06614706698951964</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.08788466776109392</v>
+        <v>0.08630237798372756</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>446</v>
@@ -9757,19 +9757,19 @@
         <v>327461</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>297447</v>
+        <v>297012</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>359279</v>
+        <v>360627</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.08876902536542423</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08063254324225931</v>
+        <v>0.08051465892544692</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.09739429006981028</v>
+        <v>0.09775978261634391</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>694</v>
@@ -9778,19 +9778,19 @@
         <v>591520</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>548084</v>
+        <v>545923</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>644180</v>
+        <v>640993</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0825570166577716</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07649475278706594</v>
+        <v>0.07619320869393163</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.08990669007841141</v>
+        <v>0.08946181408560119</v>
       </c>
     </row>
     <row r="31">
@@ -9807,19 +9807,19 @@
         <v>2471848</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2413843</v>
+        <v>2407263</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>2533366</v>
+        <v>2526971</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.7111040704767506</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.6944171459267714</v>
+        <v>0.6925240136075319</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.7288014305175932</v>
+        <v>0.7269617614720217</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>3799</v>
@@ -9828,19 +9828,19 @@
         <v>2638476</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2587025</v>
+        <v>2590371</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>2685976</v>
+        <v>2690284</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.7152445488578297</v>
+        <v>0.7152445488578298</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.7012972349771546</v>
+        <v>0.7022042747122857</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.7281211704706557</v>
+        <v>0.7292889461725353</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>6220</v>
@@ -9849,19 +9849,19 @@
         <v>5110324</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>5030069</v>
+        <v>5035421</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>5193505</v>
+        <v>5186671</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.713235808238093</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.7020348369694173</v>
+        <v>0.7027817999020114</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.7248451941865215</v>
+        <v>0.7238913719926817</v>
       </c>
     </row>
     <row r="32">
@@ -9878,19 +9878,19 @@
         <v>703245</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>650217</v>
+        <v>654109</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>755701</v>
+        <v>764927</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2023102268888703</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1870550777907307</v>
+        <v>0.1881748962419174</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2174007703227438</v>
+        <v>0.2200550331946818</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>980</v>
@@ -9899,19 +9899,19 @@
         <v>675373</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>632268</v>
+        <v>634614</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>715511</v>
+        <v>717091</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1830816727543312</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1713967050948675</v>
+        <v>0.1720328399112844</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1939624698827785</v>
+        <v>0.1943908243795664</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1610</v>
@@ -9920,19 +9920,19 @@
         <v>1378617</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1311907</v>
+        <v>1314493</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1449198</v>
+        <v>1447645</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.192410347896161</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1830997914062493</v>
+        <v>0.1834606847116726</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2022610886955584</v>
+        <v>0.2020443280454978</v>
       </c>
     </row>
     <row r="33">
